--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd28-Cd86.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd28-Cd86.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd28</t>
   </si>
   <si>
     <t>Cd86</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.39716920675431</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="H2">
-        <v>3.39716920675431</v>
+        <v>0.100457</v>
       </c>
       <c r="I2">
-        <v>0.383289648760727</v>
+        <v>0.00318114446498929</v>
       </c>
       <c r="J2">
-        <v>0.383289648760727</v>
+        <v>0.003186869275039188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.6375149167562</v>
+        <v>72.81203866666667</v>
       </c>
       <c r="N2">
-        <v>63.6375149167562</v>
+        <v>218.436116</v>
       </c>
       <c r="O2">
-        <v>0.393516704471135</v>
+        <v>0.4212248541800225</v>
       </c>
       <c r="P2">
-        <v>0.393516704471135</v>
+        <v>0.4212389216426637</v>
       </c>
       <c r="Q2">
-        <v>216.1874060695722</v>
+        <v>2.438159656112445</v>
       </c>
       <c r="R2">
-        <v>216.1874060695722</v>
+        <v>21.943436905012</v>
       </c>
       <c r="S2">
-        <v>0.1508308794382201</v>
+        <v>0.0013399771133907</v>
       </c>
       <c r="T2">
-        <v>0.1508308794382201</v>
+        <v>0.001342433376833645</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,185 +587,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.39716920675431</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="H3">
-        <v>3.39716920675431</v>
+        <v>0.100457</v>
       </c>
       <c r="I3">
-        <v>0.383289648760727</v>
+        <v>0.00318114446498929</v>
       </c>
       <c r="J3">
-        <v>0.383289648760727</v>
+        <v>0.003186869275039188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>98.07738611211261</v>
+        <v>99.90659833333332</v>
       </c>
       <c r="N3">
-        <v>98.07738611211261</v>
+        <v>299.719795</v>
       </c>
       <c r="O3">
-        <v>0.606483295528865</v>
+        <v>0.5779695649951093</v>
       </c>
       <c r="P3">
-        <v>0.606483295528865</v>
+        <v>0.5779888671924575</v>
       </c>
       <c r="Q3">
-        <v>333.1854759790218</v>
+        <v>3.345439049590555</v>
       </c>
       <c r="R3">
-        <v>333.1854759790218</v>
+        <v>30.108951446315</v>
       </c>
       <c r="S3">
-        <v>0.2324587693225069</v>
+        <v>0.00183860468261646</v>
       </c>
       <c r="T3">
-        <v>0.2324587693225069</v>
+        <v>0.001841974962170348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.46602137962918</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="H4">
-        <v>5.46602137962918</v>
+        <v>0.100457</v>
       </c>
       <c r="I4">
-        <v>0.616710351239273</v>
+        <v>0.00318114446498929</v>
       </c>
       <c r="J4">
-        <v>0.616710351239273</v>
+        <v>0.003186869275039188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>63.6375149167562</v>
+        <v>0.121933</v>
       </c>
       <c r="N4">
-        <v>63.6375149167562</v>
+        <v>0.365799</v>
       </c>
       <c r="O4">
-        <v>0.393516704471135</v>
+        <v>0.0007053944798862752</v>
       </c>
       <c r="P4">
-        <v>0.393516704471135</v>
+        <v>0.0007054180376379004</v>
       </c>
       <c r="Q4">
-        <v>347.8440170814603</v>
+        <v>0.004083007793666668</v>
       </c>
       <c r="R4">
-        <v>347.8440170814603</v>
+        <v>0.03674707014300001</v>
       </c>
       <c r="S4">
-        <v>0.2426858250329148</v>
+        <v>2.243961745324224E-06</v>
       </c>
       <c r="T4">
-        <v>0.2426858250329148</v>
+        <v>2.248075070206662E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.03348566666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.100457</v>
+      </c>
+      <c r="I5">
+        <v>0.00318114446498929</v>
+      </c>
+      <c r="J5">
+        <v>0.003186869275039188</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.017318</v>
+      </c>
+      <c r="N5">
+        <v>0.034636</v>
+      </c>
+      <c r="O5">
+        <v>0.0001001863449818385</v>
+      </c>
+      <c r="P5">
+        <v>6.67931272409884E-05</v>
+      </c>
+      <c r="Q5">
+        <v>0.0005799047753333334</v>
+      </c>
+      <c r="R5">
+        <v>0.003479428652</v>
+      </c>
+      <c r="S5">
+        <v>3.187072368064831E-07</v>
+      </c>
+      <c r="T5">
+        <v>2.128609649880889E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.687095</v>
+      </c>
+      <c r="H6">
+        <v>14.061285</v>
+      </c>
+      <c r="I6">
+        <v>0.4452748832673376</v>
+      </c>
+      <c r="J6">
+        <v>0.446076203092561</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>72.81203866666667</v>
+      </c>
+      <c r="N6">
+        <v>218.436116</v>
+      </c>
+      <c r="O6">
+        <v>0.4212248541800225</v>
+      </c>
+      <c r="P6">
+        <v>0.4212389216426637</v>
+      </c>
+      <c r="Q6">
+        <v>341.27694237434</v>
+      </c>
+      <c r="R6">
+        <v>3071.49248136906</v>
+      </c>
+      <c r="S6">
+        <v>0.1875608477743108</v>
+      </c>
+      <c r="T6">
+        <v>0.1879046587611642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.687095</v>
+      </c>
+      <c r="H7">
+        <v>14.061285</v>
+      </c>
+      <c r="I7">
+        <v>0.4452748832673376</v>
+      </c>
+      <c r="J7">
+        <v>0.446076203092561</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>99.90659833333332</v>
+      </c>
+      <c r="N7">
+        <v>299.719795</v>
+      </c>
+      <c r="O7">
+        <v>0.5779695649951093</v>
+      </c>
+      <c r="P7">
+        <v>0.5779888671924575</v>
+      </c>
+      <c r="Q7">
+        <v>468.2717175151749</v>
+      </c>
+      <c r="R7">
+        <v>4214.445457636574</v>
+      </c>
+      <c r="S7">
+        <v>0.2573553305852712</v>
+      </c>
+      <c r="T7">
+        <v>0.257827079306982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.687095</v>
+      </c>
+      <c r="H8">
+        <v>14.061285</v>
+      </c>
+      <c r="I8">
+        <v>0.4452748832673376</v>
+      </c>
+      <c r="J8">
+        <v>0.446076203092561</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.121933</v>
+      </c>
+      <c r="N8">
+        <v>0.365799</v>
+      </c>
+      <c r="O8">
+        <v>0.0007053944798862752</v>
+      </c>
+      <c r="P8">
+        <v>0.0007054180376379004</v>
+      </c>
+      <c r="Q8">
+        <v>0.5715115546350001</v>
+      </c>
+      <c r="R8">
+        <v>5.143603991715</v>
+      </c>
+      <c r="S8">
+        <v>0.0003140944446887855</v>
+      </c>
+      <c r="T8">
+        <v>0.0003146701998225199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.687095</v>
+      </c>
+      <c r="H9">
+        <v>14.061285</v>
+      </c>
+      <c r="I9">
+        <v>0.4452748832673376</v>
+      </c>
+      <c r="J9">
+        <v>0.446076203092561</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.017318</v>
+      </c>
+      <c r="N9">
+        <v>0.034636</v>
+      </c>
+      <c r="O9">
+        <v>0.0001001863449818385</v>
+      </c>
+      <c r="P9">
+        <v>6.67931272409884E-05</v>
+      </c>
+      <c r="Q9">
+        <v>0.08117111121000001</v>
+      </c>
+      <c r="R9">
+        <v>0.48702666726</v>
+      </c>
+      <c r="S9">
+        <v>4.461046306676935E-05</v>
+      </c>
+      <c r="T9">
+        <v>2.979482459233841E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>5.46602137962918</v>
-      </c>
-      <c r="H5">
-        <v>5.46602137962918</v>
-      </c>
-      <c r="I5">
-        <v>0.616710351239273</v>
-      </c>
-      <c r="J5">
-        <v>0.616710351239273</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>98.07738611211261</v>
-      </c>
-      <c r="N5">
-        <v>98.07738611211261</v>
-      </c>
-      <c r="O5">
-        <v>0.606483295528865</v>
-      </c>
-      <c r="P5">
-        <v>0.606483295528865</v>
-      </c>
-      <c r="Q5">
-        <v>536.0930893469535</v>
-      </c>
-      <c r="R5">
-        <v>536.0930893469535</v>
-      </c>
-      <c r="S5">
-        <v>0.3740245262063582</v>
-      </c>
-      <c r="T5">
-        <v>0.3740245262063582</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.748987333333333</v>
+      </c>
+      <c r="H10">
+        <v>17.246962</v>
+      </c>
+      <c r="I10">
+        <v>0.5461548493801389</v>
+      </c>
+      <c r="J10">
+        <v>0.5471377135049664</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>72.81203866666667</v>
+      </c>
+      <c r="N10">
+        <v>218.436116</v>
+      </c>
+      <c r="O10">
+        <v>0.4212248541800225</v>
+      </c>
+      <c r="P10">
+        <v>0.4212389216426637</v>
+      </c>
+      <c r="Q10">
+        <v>418.5954880088435</v>
+      </c>
+      <c r="R10">
+        <v>3767.359392079592</v>
+      </c>
+      <c r="S10">
+        <v>0.2300539967898612</v>
+      </c>
+      <c r="T10">
+        <v>0.2304757004268647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.748987333333333</v>
+      </c>
+      <c r="H11">
+        <v>17.246962</v>
+      </c>
+      <c r="I11">
+        <v>0.5461548493801389</v>
+      </c>
+      <c r="J11">
+        <v>0.5471377135049664</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>99.90659833333332</v>
+      </c>
+      <c r="N11">
+        <v>299.719795</v>
+      </c>
+      <c r="O11">
+        <v>0.5779695649951093</v>
+      </c>
+      <c r="P11">
+        <v>0.5779888671924575</v>
+      </c>
+      <c r="Q11">
+        <v>574.3617683347543</v>
+      </c>
+      <c r="R11">
+        <v>5169.25591501279</v>
+      </c>
+      <c r="S11">
+        <v>0.3156608807162083</v>
+      </c>
+      <c r="T11">
+        <v>0.3162395072270069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.748987333333333</v>
+      </c>
+      <c r="H12">
+        <v>17.246962</v>
+      </c>
+      <c r="I12">
+        <v>0.5461548493801389</v>
+      </c>
+      <c r="J12">
+        <v>0.5471377135049664</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.121933</v>
+      </c>
+      <c r="N12">
+        <v>0.365799</v>
+      </c>
+      <c r="O12">
+        <v>0.0007053944798862752</v>
+      </c>
+      <c r="P12">
+        <v>0.0007054180376379004</v>
+      </c>
+      <c r="Q12">
+        <v>0.7009912725153333</v>
+      </c>
+      <c r="R12">
+        <v>6.308921452638001</v>
+      </c>
+      <c r="S12">
+        <v>0.00038525461591587</v>
+      </c>
+      <c r="T12">
+        <v>0.0003859608121783612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.748987333333333</v>
+      </c>
+      <c r="H13">
+        <v>17.246962</v>
+      </c>
+      <c r="I13">
+        <v>0.5461548493801389</v>
+      </c>
+      <c r="J13">
+        <v>0.5471377135049664</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.017318</v>
+      </c>
+      <c r="N13">
+        <v>0.034636</v>
+      </c>
+      <c r="O13">
+        <v>0.0001001863449818385</v>
+      </c>
+      <c r="P13">
+        <v>6.67931272409884E-05</v>
+      </c>
+      <c r="Q13">
+        <v>0.09956096263866666</v>
+      </c>
+      <c r="R13">
+        <v>0.597365775832</v>
+      </c>
+      <c r="S13">
+        <v>5.471725815350263E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.654503891648068E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0567275</v>
+      </c>
+      <c r="H14">
+        <v>0.113455</v>
+      </c>
+      <c r="I14">
+        <v>0.005389122887534367</v>
+      </c>
+      <c r="J14">
+        <v>0.00359921412743334</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>72.81203866666667</v>
+      </c>
+      <c r="N14">
+        <v>218.436116</v>
+      </c>
+      <c r="O14">
+        <v>0.4212248541800225</v>
+      </c>
+      <c r="P14">
+        <v>0.4212389216426637</v>
+      </c>
+      <c r="Q14">
+        <v>4.130444923463333</v>
+      </c>
+      <c r="R14">
+        <v>24.78266954078</v>
+      </c>
+      <c r="S14">
+        <v>0.002270032502459886</v>
+      </c>
+      <c r="T14">
+        <v>0.001516129077801061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0567275</v>
+      </c>
+      <c r="H15">
+        <v>0.113455</v>
+      </c>
+      <c r="I15">
+        <v>0.005389122887534367</v>
+      </c>
+      <c r="J15">
+        <v>0.00359921412743334</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>99.90659833333332</v>
+      </c>
+      <c r="N15">
+        <v>299.719795</v>
+      </c>
+      <c r="O15">
+        <v>0.5779695649951093</v>
+      </c>
+      <c r="P15">
+        <v>0.5779888671924575</v>
+      </c>
+      <c r="Q15">
+        <v>5.667451556954166</v>
+      </c>
+      <c r="R15">
+        <v>34.004709341725</v>
+      </c>
+      <c r="S15">
+        <v>0.003114749011013425</v>
+      </c>
+      <c r="T15">
+        <v>0.002080305696298285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0567275</v>
+      </c>
+      <c r="H16">
+        <v>0.113455</v>
+      </c>
+      <c r="I16">
+        <v>0.005389122887534367</v>
+      </c>
+      <c r="J16">
+        <v>0.00359921412743334</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.121933</v>
+      </c>
+      <c r="N16">
+        <v>0.365799</v>
+      </c>
+      <c r="O16">
+        <v>0.0007053944798862752</v>
+      </c>
+      <c r="P16">
+        <v>0.0007054180376379004</v>
+      </c>
+      <c r="Q16">
+        <v>0.006916954257500001</v>
+      </c>
+      <c r="R16">
+        <v>0.04150172554500001</v>
+      </c>
+      <c r="S16">
+        <v>3.801457536295526E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.538950566812634E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.0567275</v>
+      </c>
+      <c r="H17">
+        <v>0.113455</v>
+      </c>
+      <c r="I17">
+        <v>0.005389122887534367</v>
+      </c>
+      <c r="J17">
+        <v>0.00359921412743334</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.017318</v>
+      </c>
+      <c r="N17">
+        <v>0.034636</v>
+      </c>
+      <c r="O17">
+        <v>0.0001001863449818385</v>
+      </c>
+      <c r="P17">
+        <v>6.67931272409884E-05</v>
+      </c>
+      <c r="Q17">
+        <v>0.000982406845</v>
+      </c>
+      <c r="R17">
+        <v>0.00392962738</v>
+      </c>
+      <c r="S17">
+        <v>5.399165247600396E-07</v>
+      </c>
+      <c r="T17">
+        <v>2.404027671812181E-07</v>
       </c>
     </row>
   </sheetData>
